--- a/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2026-W02/XLSX/ΕΒΔΟΜΑΔΙΑΙΟ_ΣΗΜΕΙΩΜΑ_ΣΗΘΥΑ_ΘΕΣΣΑΛΟΝΙΚΗΣ_1_ΜΟΝΟΠΡΟΣΩΠΗ_ΙΚΕ_2026-W02.xlsx
+++ b/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2026-W02/XLSX/ΕΒΔΟΜΑΔΙΑΙΟ_ΣΗΜΕΙΩΜΑ_ΣΗΘΥΑ_ΘΕΣΣΑΛΟΝΙΚΗΣ_1_ΜΟΝΟΠΡΟΣΩΠΗ_ΙΚΕ_2026-W02.xlsx
@@ -151,10 +151,9 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
@@ -162,11 +161,11 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <sz val="15"/>
     </font>
     <font>
       <b val="1"/>
-      <sz val="15"/>
+      <sz val="13"/>
     </font>
   </fonts>
   <fills count="4">
@@ -699,7 +698,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -936,7 +935,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -950,7 +949,7 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -983,19 +982,13 @@
     <xf numFmtId="168" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1014,13 +1007,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2928,71 +2922,143 @@
       <c r="H10" s="96" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1" s="78">
-      <c r="C11" s="97" t="inlineStr">
-        <is>
-          <t>Σύνολο Εβδομάδας</t>
-        </is>
-      </c>
-      <c r="D11" s="98" t="n">
+      <c r="C11" s="94" t="inlineStr">
+        <is>
+          <t>06/01/26</t>
+        </is>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="98" t="n">
+      <c r="E11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="98" t="n">
+      <c r="F11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="99" t="n">
+      <c r="G11" s="95" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="96" t="n"/>
     </row>
     <row r="12" ht="28.5" customHeight="1" s="78">
-      <c r="C12" s="94" t="n"/>
-      <c r="D12" s="26" t="n"/>
-      <c r="E12" s="27" t="n"/>
-      <c r="F12" s="28" t="n"/>
-      <c r="G12" s="100" t="n"/>
+      <c r="C12" s="94" t="inlineStr">
+        <is>
+          <t>07/01/26</t>
+        </is>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" s="96" t="n"/>
     </row>
     <row r="13" ht="28.5" customHeight="1" s="78">
-      <c r="C13" s="94" t="n"/>
-      <c r="D13" s="26" t="n"/>
-      <c r="E13" s="27" t="n"/>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="100" t="n"/>
+      <c r="C13" s="94" t="inlineStr">
+        <is>
+          <t>08/01/26</t>
+        </is>
+      </c>
+      <c r="D13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" s="96" t="n"/>
     </row>
     <row r="14" ht="28.5" customHeight="1" s="78">
-      <c r="C14" s="94" t="n"/>
-      <c r="D14" s="26" t="n"/>
-      <c r="E14" s="27" t="n"/>
-      <c r="F14" s="28" t="n"/>
-      <c r="G14" s="100" t="n"/>
+      <c r="C14" s="94" t="inlineStr">
+        <is>
+          <t>09/01/26</t>
+        </is>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" s="96" t="n"/>
     </row>
     <row r="15" ht="28.5" customHeight="1" s="78">
-      <c r="C15" s="94" t="n"/>
-      <c r="D15" s="26" t="n"/>
-      <c r="E15" s="27" t="n"/>
-      <c r="F15" s="28" t="n"/>
-      <c r="G15" s="100" t="n"/>
+      <c r="C15" s="94" t="inlineStr">
+        <is>
+          <t>10/01/26</t>
+        </is>
+      </c>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" s="96" t="n"/>
     </row>
     <row r="16" ht="28.5" customHeight="1" s="78">
-      <c r="C16" s="94" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="27" t="n"/>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="100" t="n"/>
+      <c r="C16" s="94" t="inlineStr">
+        <is>
+          <t>11/01/26</t>
+        </is>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" s="96" t="n"/>
     </row>
     <row r="17" ht="28.5" customHeight="1" s="78" thickBot="1">
-      <c r="C17" s="101" t="n"/>
-      <c r="D17" s="30" t="n"/>
-      <c r="E17" s="76" t="n"/>
-      <c r="F17" s="31" t="n"/>
-      <c r="G17" s="77" t="n"/>
+      <c r="C17" s="97" t="inlineStr">
+        <is>
+          <t>Σύνολο Εβδομάδας</t>
+        </is>
+      </c>
+      <c r="D17" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="99" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" s="96" t="n"/>
     </row>
     <row r="18" ht="28.5" customHeight="1" s="78">
@@ -3000,7 +3066,7 @@
       <c r="D18" s="33" t="n"/>
       <c r="E18" s="33" t="n"/>
       <c r="F18" s="34" t="n"/>
-      <c r="G18" s="102" t="n"/>
+      <c r="G18" s="100" t="n"/>
       <c r="H18" s="96" t="n"/>
     </row>
     <row r="19" ht="49" customHeight="1" s="78" thickBot="1">
@@ -3014,16 +3080,16 @@
           <t>Ανάλυση Χρεώσεων και Υπηρεσίων ΦοΣΕ</t>
         </is>
       </c>
-      <c r="C20" s="103" t="n"/>
-      <c r="D20" s="104" t="n"/>
+      <c r="C20" s="101" t="n"/>
+      <c r="D20" s="102" t="n"/>
       <c r="E20" s="19" t="n"/>
-      <c r="F20" s="105" t="inlineStr">
+      <c r="F20" s="103" t="inlineStr">
         <is>
           <t>Υπολογισμός προς καταβολή</t>
         </is>
       </c>
-      <c r="G20" s="103" t="n"/>
-      <c r="H20" s="106" t="n"/>
+      <c r="G20" s="101" t="n"/>
+      <c r="H20" s="104" t="n"/>
       <c r="I20" s="44" t="n"/>
     </row>
     <row r="21" ht="36" customHeight="1" s="78">
@@ -3033,7 +3099,7 @@
         </is>
       </c>
       <c r="C21" s="86" t="n"/>
-      <c r="D21" s="107" t="n">
+      <c r="D21" s="105" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="43" t="n"/>
@@ -3043,7 +3109,7 @@
         </is>
       </c>
       <c r="G21" s="86" t="n"/>
-      <c r="H21" s="108">
+      <c r="H21" s="106">
         <f>D17/1000</f>
         <v/>
       </c>
@@ -3055,7 +3121,7 @@
           <t>Σύνολο (€)</t>
         </is>
       </c>
-      <c r="C22" s="109" t="n"/>
+      <c r="C22" s="107" t="n"/>
       <c r="D22" s="42" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +3173,7 @@
           <t xml:space="preserve">Συνολικό Ποσό προς καταβολή </t>
         </is>
       </c>
-      <c r="G25" s="109" t="n"/>
+      <c r="G25" s="107" t="n"/>
       <c r="H25" s="47">
         <f>H22+H23+H24</f>
         <v/>
@@ -3128,16 +3194,16 @@
           <t>Στοιχεία Τράπεζας</t>
         </is>
       </c>
-      <c r="C27" s="103" t="n"/>
-      <c r="D27" s="104" t="n"/>
+      <c r="C27" s="101" t="n"/>
+      <c r="D27" s="102" t="n"/>
       <c r="E27" s="40" t="n"/>
-      <c r="F27" s="105" t="inlineStr">
+      <c r="F27" s="103" t="inlineStr">
         <is>
           <t>Υπολογισμός Τιμολόγησης</t>
         </is>
       </c>
-      <c r="G27" s="103" t="n"/>
-      <c r="H27" s="106" t="n"/>
+      <c r="G27" s="101" t="n"/>
+      <c r="H27" s="104" t="n"/>
       <c r="I27" s="44" t="n"/>
     </row>
     <row r="28" ht="25.25" customHeight="1" s="78">
@@ -3146,12 +3212,12 @@
           <t xml:space="preserve"> ΙΒΑΝ</t>
         </is>
       </c>
-      <c r="C28" s="110" t="inlineStr">
+      <c r="C28" s="108" t="inlineStr">
         <is>
           <t>GR3103400130013039317091197</t>
         </is>
       </c>
-      <c r="D28" s="111" t="n"/>
+      <c r="D28" s="109" t="n"/>
       <c r="E28" s="40" t="n"/>
       <c r="F28" s="59" t="inlineStr">
         <is>
@@ -3171,11 +3237,12 @@
           <t xml:space="preserve"> Ημερομηνία</t>
         </is>
       </c>
-      <c r="C29" s="112" t="inlineStr">
-        <is>
-          <t>16/01/26</t>
-        </is>
-      </c>
+      <c r="C29" s="110" t="inlineStr">
+        <is>
+          <t>21/01/26</t>
+        </is>
+      </c>
+      <c r="D29" s="111" t="n"/>
       <c r="E29" s="40" t="n"/>
       <c r="F29" s="59" t="inlineStr">
         <is>
@@ -3199,7 +3266,7 @@
           <t xml:space="preserve">ΓΕΝΙΚΟ ΣΥΝΟΛΟ </t>
         </is>
       </c>
-      <c r="G30" s="109" t="n"/>
+      <c r="G30" s="107" t="n"/>
       <c r="H30" s="42">
         <f>H28+H29</f>
         <v/>
@@ -3208,7 +3275,7 @@
     </row>
     <row r="31" ht="28.75" customHeight="1" s="78"/>
     <row r="32" ht="38.25" customHeight="1" s="78">
-      <c r="B32" s="113" t="inlineStr">
+      <c r="B32" s="112" t="inlineStr">
         <is>
           <t>Σημείωση: Το τελικό ποσό πίστωσης παραγωγού προκύπτει από το άθροισμα των γινομένων της παραγόμενης ενέργειας επί της αντίστοιχης Τιμής Εκκαθάρισης Αγοράς Επόμενης Ημέρας ανά 15', αφαιρώντας την πληρωμή υπηρεσιών ΦοΣΕ και Διαχειριστικών εξόδων. Οι πληρωμές της GREEN VALUE Α.Ε. πραγματοποιουνται εντός 2 εργάσιμων ημερών μετά την παραλαβή του ενημερωτικού σημειώματος.</t>
         </is>
@@ -3222,10 +3289,10 @@
     <row r="40" ht="28.5" customHeight="1" s="78"/>
     <row r="41" ht="28.5" customHeight="1" s="78"/>
     <row r="43">
-      <c r="D43" s="114" t="n"/>
+      <c r="D43" s="113" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F29:G29"/>
@@ -3236,6 +3303,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B20:D20"/>
